--- a/ca_back/src/main/resources/CA_AGENCE_RECAP.xlsx
+++ b/ca_back/src/main/resources/CA_AGENCE_RECAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="386">
   <si>
     <t>VENDEURS</t>
   </si>
@@ -89,9 +89,6 @@
     <t>3, rue F, Dolto</t>
   </si>
   <si>
-    <t>C Syner</t>
-  </si>
-  <si>
     <t>FRAPARD</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>7, rue Rouget de Lisle</t>
   </si>
   <si>
-    <t>D Syner</t>
-  </si>
-  <si>
     <t>ESBRAYAT</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>JND</t>
   </si>
   <si>
-    <t>G UFF</t>
-  </si>
-  <si>
     <t>RUDELLE</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>DBN</t>
   </si>
   <si>
-    <t>C Synergie</t>
-  </si>
-  <si>
     <t>VIOLLEAU</t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>28, rue de l'Ouest</t>
   </si>
   <si>
-    <t xml:space="preserve">G </t>
-  </si>
-  <si>
     <t>NOBLET</t>
   </si>
   <si>
@@ -1067,9 +1052,6 @@
     <t>DASTE</t>
   </si>
   <si>
-    <t xml:space="preserve"> G</t>
-  </si>
-  <si>
     <t>HEMON</t>
   </si>
   <si>
@@ -1179,6 +1161,18 @@
   </si>
   <si>
     <t>BJT85%</t>
+  </si>
+  <si>
+    <t>VEQ</t>
+  </si>
+  <si>
+    <t>G_UFF</t>
+  </si>
+  <si>
+    <t>C_SYNERGIE</t>
+  </si>
+  <si>
+    <t>D_SYNERGIE</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1406,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1547,9 +1541,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1971,20 +1962,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2006,14 +1998,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2034,16 +2026,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="82">
         <v>43374</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2069,11 +2061,11 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="82">
         <v>43374</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2099,11 +2091,11 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="82">
         <v>43374</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2126,22 +2118,22 @@
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="82">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="83">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="10">
         <v>22000</v>
@@ -2157,21 +2149,21 @@
         <v>10</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="82">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="83">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="10">
         <v>12000</v>
@@ -2181,27 +2173,27 @@
         <v>10000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="82">
         <v>43374</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="10">
         <v>11000</v>
@@ -2219,19 +2211,19 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="82">
         <v>43374</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="3">
         <v>9000</v>
@@ -2241,27 +2233,27 @@
         <v>7500</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I9" s="82">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" s="83">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>11000</v>
@@ -2271,27 +2263,27 @@
         <v>9166.6666666666679</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="82">
         <v>43374</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="16">
         <v>13000</v>
@@ -2308,19 +2300,19 @@
       <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3">
         <v>15000</v>
@@ -2329,27 +2321,27 @@
         <v>12500</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="82">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="I12" s="83">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="16">
         <v>14750</v>
@@ -2359,27 +2351,27 @@
         <v>12291.666666666668</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D14" s="3">
         <v>12700</v>
@@ -2394,22 +2386,22 @@
       <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="83">
+      <c r="H14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I14" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6">
         <v>5300</v>
@@ -2427,19 +2419,19 @@
       <c r="H15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3">
         <v>10000</v>
@@ -2457,19 +2449,19 @@
       <c r="H16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3">
         <v>2500</v>
@@ -2479,27 +2471,27 @@
         <v>2083.3333333333335</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17" s="82">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="C18" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="83">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="3">
         <v>7700</v>
@@ -2509,27 +2501,27 @@
         <v>6416.666666666667</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="83">
+        <v>48</v>
+      </c>
+      <c r="I18" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3">
         <v>8800</v>
@@ -2542,24 +2534,24 @@
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="83">
+        <v>383</v>
+      </c>
+      <c r="I19" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3">
         <v>9600</v>
@@ -2569,7 +2561,7 @@
         <v>8000</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>20</v>
@@ -2577,19 +2569,19 @@
       <c r="H20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="22">
         <v>1500</v>
@@ -2607,19 +2599,19 @@
       <c r="H21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D22" s="3">
         <v>5500</v>
@@ -2632,24 +2624,24 @@
         <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="83">
+        <v>48</v>
+      </c>
+      <c r="I22" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3">
         <v>8000</v>
@@ -2659,27 +2651,27 @@
         <v>6666.666666666667</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="83">
+        <v>48</v>
+      </c>
+      <c r="I23" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24" s="10">
         <v>12600</v>
@@ -2695,21 +2687,21 @@
         <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="83">
+        <v>383</v>
+      </c>
+      <c r="I24" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" s="30">
         <v>2500</v>
@@ -2719,27 +2711,27 @@
         <v>2083.3333333333335</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I25" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" s="32">
         <v>5000</v>
@@ -2757,19 +2749,19 @@
       <c r="H26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="82">
         <v>43405</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D27" s="10">
         <v>9000</v>
@@ -2782,24 +2774,24 @@
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="83">
+        <v>48</v>
+      </c>
+      <c r="I27" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="10">
         <v>9450</v>
@@ -2812,24 +2804,24 @@
         <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D29" s="3">
         <v>5900</v>
@@ -2839,27 +2831,27 @@
         <v>4916.666666666667</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="83">
+      <c r="I29" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D30" s="10">
         <v>5150</v>
@@ -2872,24 +2864,24 @@
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D31" s="3">
         <v>18000</v>
@@ -2899,27 +2891,27 @@
         <v>15000</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="82">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="83">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="D32" s="3">
         <v>6500</v>
@@ -2929,27 +2921,27 @@
         <v>5416.666666666667</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="83">
+        <v>48</v>
+      </c>
+      <c r="I32" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D33" s="36">
         <v>10000</v>
@@ -2959,27 +2951,27 @@
         <v>8333.3333333333339</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="83">
+      <c r="I33" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D34" s="10">
         <v>11400</v>
@@ -2989,27 +2981,27 @@
         <v>9500</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="83">
+        <v>383</v>
+      </c>
+      <c r="I34" s="82">
         <v>43435</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D35" s="3">
         <v>10500</v>
@@ -3024,22 +3016,22 @@
       <c r="G35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="83">
+      <c r="H35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3">
         <v>14700</v>
@@ -3057,19 +3049,19 @@
       <c r="H36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="83">
+      <c r="I36" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D37" s="3">
         <v>17500</v>
@@ -3079,27 +3071,27 @@
         <v>14583.333333333334</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="83">
+        <v>48</v>
+      </c>
+      <c r="I37" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D38" s="3">
         <v>8300</v>
@@ -3115,21 +3107,21 @@
         <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="83">
+        <v>48</v>
+      </c>
+      <c r="I38" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D39" s="3">
         <v>4000</v>
@@ -3139,27 +3131,27 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I39" s="83">
+        <v>64</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D40" s="3">
         <v>5670</v>
@@ -3175,21 +3167,21 @@
         <v>15</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" s="83">
+        <v>16</v>
+      </c>
+      <c r="I40" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D41" s="3">
         <v>4500</v>
@@ -3205,21 +3197,21 @@
         <v>15</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="83">
+        <v>16</v>
+      </c>
+      <c r="I41" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D42" s="43">
         <v>10000</v>
@@ -3234,22 +3226,22 @@
       <c r="G42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="83">
+      <c r="H42" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I42" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D43" s="3">
         <v>11900</v>
@@ -3258,208 +3250,208 @@
         <f t="shared" si="3"/>
         <v>9916.6666666666679</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="46" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I43" s="83">
+        <v>16</v>
+      </c>
+      <c r="I43" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="50">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="49">
         <v>25000</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="50">
         <f t="shared" si="3"/>
         <v>20833.333333333336</v>
       </c>
-      <c r="F44" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" s="83">
+      <c r="F44" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="D45" s="50">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D45" s="49">
         <v>8500</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="50">
         <f t="shared" si="3"/>
         <v>7083.3333333333339</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="83">
+      <c r="I45" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="50">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="49">
         <v>5850</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="50">
         <f t="shared" si="3"/>
         <v>4875</v>
       </c>
-      <c r="F46" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="83">
+      <c r="F46" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="51">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="50">
         <v>6000</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="50">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="F47" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="83">
+      <c r="F47" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="51">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="50">
         <v>10000</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="50">
         <f t="shared" si="3"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="F48" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="83">
+      <c r="F48" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="51">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="50">
         <v>7200</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="50">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="F49" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="F49" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="83">
+      <c r="I49" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D50" s="3">
         <v>10000</v>
@@ -3474,82 +3466,82 @@
       <c r="G50" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="83">
+      <c r="H50" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I50" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="50">
         <v>7800</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="50">
         <f t="shared" si="3"/>
         <v>6500</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="83">
+      <c r="G51" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
-        <v>165</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="51">
+        <v>162</v>
+      </c>
+      <c r="D52" s="50">
         <v>17000</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="50">
         <f t="shared" si="3"/>
         <v>14166.666666666668</v>
       </c>
-      <c r="F52" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="83">
+      <c r="F52" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="82">
         <v>43466</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
-        <v>168</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="60" t="s">
+        <v>163</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D53" s="10">
         <v>10500</v>
@@ -3559,57 +3551,57 @@
         <v>8750</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="83">
+        <v>48</v>
+      </c>
+      <c r="I53" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="51">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="50">
         <v>5850</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="50">
         <f>D54/1.2</f>
         <v>4875</v>
       </c>
-      <c r="F54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="I54" s="83">
+      <c r="F54" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="s">
-        <v>173</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="61" t="s">
+        <v>168</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D55" s="3">
         <v>12250</v>
@@ -3622,24 +3614,24 @@
         <v>15</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" s="83">
+        <v>171</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I55" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D56" s="3">
         <v>5500</v>
@@ -3649,27 +3641,27 @@
         <v>4583.3333333333339</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="83">
+      <c r="I56" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="63" t="s">
-        <v>179</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="62" t="s">
+        <v>174</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>180</v>
+        <v>116</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>175</v>
       </c>
       <c r="D57" s="3">
         <v>12250</v>
@@ -3679,27 +3671,27 @@
         <v>10208.333333333334</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="83">
+        <v>38</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I57" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
-        <v>181</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="59" t="s">
+        <v>176</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D58" s="3">
         <v>8500</v>
@@ -3709,27 +3701,27 @@
         <v>7083.3333333333339</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="83">
+      <c r="I58" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
-        <v>183</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="62" t="s">
+        <v>178</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D59" s="16">
         <v>9000</v>
@@ -3739,27 +3731,27 @@
         <v>7500</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I59" s="83">
+        <v>48</v>
+      </c>
+      <c r="I59" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
-        <v>186</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="62" t="s">
+        <v>181</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D60" s="3">
         <v>7500</v>
@@ -3777,19 +3769,19 @@
       <c r="H60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="83">
+      <c r="I60" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
-        <v>188</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D61" s="3">
         <v>16000</v>
@@ -3799,27 +3791,27 @@
         <v>13333.333333333334</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I61" s="83">
+        <v>48</v>
+      </c>
+      <c r="I61" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
-        <v>191</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3">
         <v>8960</v>
@@ -3837,19 +3829,19 @@
       <c r="H62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="83">
+      <c r="I62" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
-        <v>194</v>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D63" s="3">
         <v>13000</v>
@@ -3859,7 +3851,7 @@
         <v>10833.333333333334</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>20</v>
@@ -3867,19 +3859,19 @@
       <c r="H63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="83">
+      <c r="I63" s="82">
         <v>43497</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
-        <v>197</v>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D64" s="10">
         <v>6000</v>
@@ -3889,27 +3881,27 @@
         <v>5000</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I64" s="83">
+        <v>48</v>
+      </c>
+      <c r="I64" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D65" s="3">
         <v>5850</v>
@@ -3919,27 +3911,27 @@
         <v>4875</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="83">
+      <c r="I65" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D66" s="3">
         <v>15000</v>
@@ -3949,57 +3941,57 @@
         <v>12500</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="83">
+      <c r="I66" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" s="66">
+        <v>203</v>
+      </c>
+      <c r="D67" s="65">
         <v>13200</v>
       </c>
       <c r="E67" s="10">
         <f t="shared" si="5"/>
         <v>11000</v>
       </c>
-      <c r="F67" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="67" t="s">
+      <c r="F67" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I67" s="83">
+      <c r="I67" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D68" s="3">
         <v>22000</v>
@@ -4017,19 +4009,19 @@
       <c r="H68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="83">
+      <c r="I68" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="40" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D69" s="3">
         <v>14000</v>
@@ -4039,27 +4031,27 @@
         <v>11666.666666666668</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="83">
+      <c r="I69" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
-        <v>215</v>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="64" t="s">
+        <v>210</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D70" s="3">
         <v>11900</v>
@@ -4069,27 +4061,27 @@
         <v>9916.6666666666679</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I70" s="83">
+        <v>16</v>
+      </c>
+      <c r="I70" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
-        <v>218</v>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="64" t="s">
+        <v>213</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D71" s="3">
         <v>5850</v>
@@ -4099,29 +4091,29 @@
         <v>4875</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="83">
+        <v>383</v>
+      </c>
+      <c r="I71" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D72" s="68">
+        <v>217</v>
+      </c>
+      <c r="D72" s="67">
         <v>16531.310000000001</v>
       </c>
       <c r="E72" s="10">
@@ -4129,27 +4121,27 @@
         <v>13776.091666666669</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="83">
+      <c r="I72" s="82">
         <v>43525</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D73" s="3">
         <v>10000</v>
@@ -4159,27 +4151,27 @@
         <v>8333.3333333333339</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I73" s="83">
+      <c r="H73" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I73" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D74" s="10">
         <v>8500</v>
@@ -4189,27 +4181,27 @@
         <v>7083.3333333333339</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I74" s="83">
+        <v>48</v>
+      </c>
+      <c r="I74" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D75" s="3">
         <v>9000</v>
@@ -4219,25 +4211,25 @@
         <v>7500</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I75" s="83">
+      <c r="I75" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="62"/>
       <c r="B76" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D76" s="3">
         <v>9000</v>
@@ -4250,24 +4242,24 @@
         <v>10</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I76" s="83">
+        <v>48</v>
+      </c>
+      <c r="I76" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D77" s="3">
         <v>8000</v>
@@ -4280,24 +4272,24 @@
         <v>10</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="83">
+      <c r="I77" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D78" s="3">
         <v>11200</v>
@@ -4315,19 +4307,19 @@
       <c r="H78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I78" s="83">
+      <c r="I78" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="63" t="s">
-        <v>240</v>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="62" t="s">
+        <v>235</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D79" s="3">
         <v>5600</v>
@@ -4337,27 +4329,27 @@
         <v>4666.666666666667</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="83">
+      <c r="I79" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="63" t="s">
-        <v>242</v>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="62" t="s">
+        <v>237</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D80" s="3">
         <v>8000</v>
@@ -4367,27 +4359,27 @@
         <v>6666.666666666667</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="83">
+      <c r="I80" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D81" s="10">
         <v>11000</v>
@@ -4397,27 +4389,27 @@
         <v>9166.6666666666679</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I81" s="83">
+        <v>48</v>
+      </c>
+      <c r="I81" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D82" s="3">
         <v>7800</v>
@@ -4435,19 +4427,19 @@
       <c r="H82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="83">
+      <c r="I82" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D83" s="3">
         <v>7000</v>
@@ -4457,27 +4449,27 @@
         <v>5833.3333333333339</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="83">
+      <c r="I83" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D84" s="3">
         <v>16000</v>
@@ -4487,27 +4479,27 @@
         <v>13333.333333333334</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="83">
+      <c r="I84" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="60" t="s">
-        <v>254</v>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="59" t="s">
+        <v>249</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D85" s="3">
         <v>15000</v>
@@ -4525,19 +4517,19 @@
       <c r="H85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="83">
+      <c r="I85" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D86" s="3">
         <v>1700</v>
@@ -4555,19 +4547,19 @@
       <c r="H86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="83">
+      <c r="I86" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
-        <v>258</v>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="61" t="s">
+        <v>253</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D87" s="3">
         <v>5000</v>
@@ -4577,27 +4569,27 @@
         <v>4166.666666666667</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="83">
+      <c r="I87" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D88" s="3">
         <v>9900</v>
@@ -4607,27 +4599,27 @@
         <v>8250</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I88" s="83">
+        <v>48</v>
+      </c>
+      <c r="I88" s="82">
         <v>43556</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D89" s="3">
         <v>10500</v>
@@ -4645,19 +4637,19 @@
       <c r="H89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="83">
+      <c r="I89" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D90" s="3">
         <v>16500</v>
@@ -4670,26 +4662,26 @@
         <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I90" s="83">
+        <v>48</v>
+      </c>
+      <c r="I90" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="61" t="s">
-        <v>269</v>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="60" t="s">
+        <v>264</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="66">
+        <v>266</v>
+      </c>
+      <c r="D91" s="65">
         <v>7500</v>
       </c>
       <c r="E91" s="10">
@@ -4697,27 +4689,27 @@
         <v>6250</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="83">
+      <c r="I91" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D92" s="3">
         <v>12600</v>
@@ -4727,27 +4719,27 @@
         <v>10500</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="83">
+      <c r="I92" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D93" s="3">
         <v>5000</v>
@@ -4757,27 +4749,27 @@
         <v>4166.666666666667</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="83">
+      <c r="I93" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D94" s="3">
         <v>8600</v>
@@ -4790,24 +4782,24 @@
         <v>20</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="83">
+      <c r="I94" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D95" s="3">
         <v>5000</v>
@@ -4817,27 +4809,27 @@
         <v>4166.666666666667</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I95" s="83">
+      <c r="I95" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D96" s="3">
         <v>11400</v>
@@ -4855,19 +4847,19 @@
       <c r="H96" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I96" s="83">
+      <c r="I96" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D97" s="3">
         <v>4400</v>
@@ -4880,24 +4872,24 @@
         <v>10</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I97" s="83">
+        <v>48</v>
+      </c>
+      <c r="I97" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D98" s="3">
         <v>9800</v>
@@ -4915,19 +4907,19 @@
       <c r="H98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I98" s="83">
+      <c r="I98" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D99" s="3">
         <v>4000</v>
@@ -4937,27 +4929,27 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I99" s="83">
+      <c r="I99" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D100" s="22">
         <v>11000</v>
@@ -4970,24 +4962,24 @@
         <v>20</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H100" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="83">
+      <c r="I100" s="82">
         <v>43586</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D101" s="22">
         <v>9000</v>
@@ -4997,27 +4989,27 @@
         <v>7500</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H101" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="83">
+      <c r="I101" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D102" s="3">
         <v>8000</v>
@@ -5035,19 +5027,19 @@
       <c r="H102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I102" s="83">
+      <c r="I102" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D103" s="3">
         <v>12000</v>
@@ -5057,27 +5049,27 @@
         <v>10000</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="83">
+      <c r="I103" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B104" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="C104" s="70" t="s">
-        <v>382</v>
+        <v>294</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="69" t="s">
+        <v>376</v>
       </c>
       <c r="D104" s="3">
         <v>8000</v>
@@ -5087,27 +5079,27 @@
         <v>6666.666666666667</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I104" s="83">
+      <c r="I104" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D105" s="22">
         <v>25000</v>
@@ -5117,27 +5109,27 @@
         <v>20833.333333333336</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G105" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I105" s="83">
+        <v>48</v>
+      </c>
+      <c r="I105" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B106" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="C106" s="70" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="B106" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C106" s="69" t="s">
+        <v>301</v>
       </c>
       <c r="D106" s="3">
         <v>9800</v>
@@ -5150,24 +5142,24 @@
         <v>20</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="83">
+      <c r="I106" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D107" s="3">
         <v>8500</v>
@@ -5177,27 +5169,27 @@
         <v>7083.3333333333339</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G107" s="71" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="G107" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I107" s="83">
+        <v>48</v>
+      </c>
+      <c r="I107" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D108" s="3">
         <v>5500</v>
@@ -5215,19 +5207,19 @@
       <c r="H108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I108" s="83">
+      <c r="I108" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C109" s="72" t="s">
-        <v>315</v>
+        <v>309</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>310</v>
       </c>
       <c r="D109" s="3">
         <v>11500</v>
@@ -5239,35 +5231,35 @@
       <c r="F109" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="71" t="s">
+      <c r="G109" s="70" t="s">
         <v>15</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I109" s="83">
+      <c r="I109" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D110" s="73">
+        <v>150</v>
+      </c>
+      <c r="D110" s="72">
         <v>6640</v>
       </c>
-      <c r="E110" s="73">
+      <c r="E110" s="72">
         <f t="shared" si="8"/>
         <v>5533.3333333333339</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>10</v>
@@ -5275,24 +5267,24 @@
       <c r="H110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I110" s="83">
+      <c r="I110" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D111" s="73">
+        <v>315</v>
+      </c>
+      <c r="D111" s="72">
         <v>10500</v>
       </c>
-      <c r="E111" s="73">
+      <c r="E111" s="72">
         <f t="shared" si="8"/>
         <v>8750</v>
       </c>
@@ -5300,34 +5292,34 @@
         <v>15</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="83">
+      <c r="I111" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D112" s="73">
+        <v>317</v>
+      </c>
+      <c r="D112" s="72">
         <v>10000</v>
       </c>
-      <c r="E112" s="73">
+      <c r="E112" s="72">
         <f t="shared" si="8"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>15</v>
@@ -5335,52 +5327,54 @@
       <c r="H112" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="83">
+      <c r="I112" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="B113" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="D113" s="73">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="D113" s="72">
         <v>10000</v>
       </c>
-      <c r="E113" s="73">
+      <c r="E113" s="72">
         <f t="shared" si="8"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="83">
+        <v>38</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D114" s="3">
         <v>5850</v>
       </c>
-      <c r="E114" s="73">
+      <c r="E114" s="72">
         <f t="shared" si="8"/>
         <v>4875</v>
       </c>
@@ -5393,19 +5387,19 @@
       <c r="H114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I114" s="83">
+      <c r="I114" s="82">
         <v>43617</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D115" s="3">
         <v>12600</v>
@@ -5415,29 +5409,29 @@
         <v>10500</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I115" s="83">
+      <c r="I115" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="B116" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="C116" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="D116" s="79">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D116" s="78">
         <v>12000</v>
       </c>
       <c r="E116" s="10">
@@ -5447,25 +5441,25 @@
       <c r="F116" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="71" t="s">
+      <c r="G116" s="70" t="s">
         <v>20</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I116" s="83">
+        <v>48</v>
+      </c>
+      <c r="I116" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D117" s="3">
         <v>9000</v>
@@ -5481,21 +5475,21 @@
         <v>15</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I117" s="83">
+        <v>48</v>
+      </c>
+      <c r="I117" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="80" t="s">
-        <v>335</v>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="79" t="s">
+        <v>330</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D118" s="3">
         <v>15750</v>
@@ -5505,27 +5499,27 @@
         <v>13125</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I118" s="83">
+        <v>48</v>
+      </c>
+      <c r="I118" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D119" s="3">
         <v>8000</v>
@@ -5543,19 +5537,19 @@
       <c r="H119" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I119" s="83">
+      <c r="I119" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D120" s="3">
         <v>9000</v>
@@ -5565,27 +5559,27 @@
         <v>7500</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I120" s="83">
+      <c r="I120" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="21" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D121" s="3">
         <v>7600</v>
@@ -5601,21 +5595,21 @@
         <v>15</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I121" s="83">
+        <v>48</v>
+      </c>
+      <c r="I121" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D122" s="3">
         <v>5500</v>
@@ -5625,27 +5619,27 @@
         <v>4583.3333333333339</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I122" s="83">
+        <v>48</v>
+      </c>
+      <c r="I122" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D123" s="3">
         <v>9000</v>
@@ -5655,27 +5649,27 @@
         <v>7500</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="I123" s="83">
+        <v>16</v>
+      </c>
+      <c r="I123" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D124" s="3">
         <v>5000</v>
@@ -5685,27 +5679,27 @@
         <v>4166.666666666667</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I124" s="83">
+      <c r="I124" s="82">
         <v>43647</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D125" s="22">
         <v>10800</v>
@@ -5715,7 +5709,7 @@
         <v>9000</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G125" s="17" t="s">
         <v>15</v>
@@ -5723,19 +5717,19 @@
       <c r="H125" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I125" s="83">
+      <c r="I125" s="82">
         <v>43678</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D126" s="3">
         <v>24700</v>
@@ -5751,14 +5745,15 @@
         <v>10</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I126" s="83">
+        <v>48</v>
+      </c>
+      <c r="I126" s="82">
         <v>43709</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5770,631 +5765,631 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="48" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="70" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="75" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="42" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
